--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Atishay Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Yearly Results of Atishay(in Rs. Cr.)</t>
   </si>
@@ -128,6 +128,51 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>15.28</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>12.18</t>
+  </si>
+  <si>
+    <t>14.84</t>
+  </si>
+  <si>
+    <t>19.03</t>
+  </si>
+  <si>
+    <t>18.60</t>
+  </si>
+  <si>
+    <t>23.13</t>
+  </si>
+  <si>
+    <t>22.64</t>
+  </si>
+  <si>
+    <t>26.03</t>
+  </si>
+  <si>
+    <t>23.05</t>
+  </si>
+  <si>
+    <t>26.28</t>
+  </si>
+  <si>
+    <t>19.75</t>
+  </si>
+  <si>
+    <t>21.46</t>
+  </si>
+  <si>
+    <t>43.26</t>
   </si>
 </sst>
 </file>
@@ -566,17 +611,17 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>19.27</v>
+      <c r="B2" t="s">
+        <v>38</v>
       </c>
       <c r="C2">
         <v>19.27</v>
       </c>
       <c r="D2">
-        <v>13.01666666666667</v>
+        <v>13.02</v>
       </c>
       <c r="E2">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F2">
         <v>4.9</v>
@@ -637,17 +682,17 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>15.28</v>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3">
         <v>15.28</v>
       </c>
       <c r="D3">
-        <v>13.01666666666667</v>
+        <v>13.02</v>
       </c>
       <c r="E3">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F3">
         <v>3.68</v>
@@ -708,17 +753,17 @@
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>11.4</v>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
       <c r="C4">
         <v>11.4</v>
       </c>
       <c r="D4">
-        <v>13.01666666666667</v>
+        <v>13.02</v>
       </c>
       <c r="E4">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F4">
         <v>2.38</v>
@@ -779,17 +824,17 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>12.18</v>
+      <c r="B5" t="s">
+        <v>41</v>
       </c>
       <c r="C5">
         <v>12.18</v>
       </c>
       <c r="D5">
-        <v>13.01666666666667</v>
+        <v>13.02</v>
       </c>
       <c r="E5">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F5">
         <v>2.38</v>
@@ -850,17 +895,17 @@
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6">
-        <v>14.84</v>
+      <c r="B6" t="s">
+        <v>42</v>
       </c>
       <c r="C6">
         <v>14.84</v>
       </c>
       <c r="D6">
-        <v>13.01666666666667</v>
+        <v>13.02</v>
       </c>
       <c r="E6">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F6">
         <v>3.05</v>
@@ -921,8 +966,8 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
-        <v>19.03</v>
+      <c r="B7" t="s">
+        <v>43</v>
       </c>
       <c r="C7">
         <v>19.03</v>
@@ -931,7 +976,7 @@
         <v>9.17</v>
       </c>
       <c r="E7">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F7">
         <v>3.06</v>
@@ -992,8 +1037,8 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8">
-        <v>18.6</v>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="C8">
         <v>18.61</v>
@@ -1063,8 +1108,8 @@
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
-        <v>23.13</v>
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
       <c r="C9">
         <v>23.13</v>
@@ -1134,8 +1179,8 @@
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10">
-        <v>22.64</v>
+      <c r="B10" t="s">
+        <v>46</v>
       </c>
       <c r="C10">
         <v>22.64</v>
@@ -1205,8 +1250,8 @@
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>26.03</v>
+      <c r="B11" t="s">
+        <v>47</v>
       </c>
       <c r="C11">
         <v>26.03</v>
@@ -1276,8 +1321,8 @@
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>23.05</v>
+      <c r="B12" t="s">
+        <v>48</v>
       </c>
       <c r="C12">
         <v>23.05</v>
@@ -1347,8 +1392,8 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>26.28</v>
+      <c r="B13" t="s">
+        <v>49</v>
       </c>
       <c r="C13">
         <v>26.28</v>
@@ -1418,8 +1463,8 @@
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>19.75</v>
+      <c r="B14" t="s">
+        <v>50</v>
       </c>
       <c r="C14">
         <v>19.75</v>
@@ -1489,17 +1534,17 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>21.46</v>
+      <c r="B15" t="s">
+        <v>51</v>
       </c>
       <c r="C15">
         <v>21.46</v>
       </c>
       <c r="D15">
-        <v>13.01666666666667</v>
+        <v>13.02</v>
       </c>
       <c r="E15">
-        <v>-0.135</v>
+        <v>-0.14</v>
       </c>
       <c r="F15">
         <v>4.83</v>
@@ -1560,8 +1605,8 @@
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>43.26</v>
+      <c r="B16" t="s">
+        <v>52</v>
       </c>
       <c r="C16">
         <v>43.26</v>
